--- a/Maridajes por región.xlsx
+++ b/Maridajes por región.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>Table 1</t>
   </si>
@@ -3081,6 +3081,309 @@
       </rPr>
       <t>, **</t>
     </r>
+  </si>
+  <si>
+    <t>Burdeos (Francia)</t>
+  </si>
+  <si>
+    <t>Ostras de Arcachon, Rillettes de pescado</t>
+  </si>
+  <si>
+    <t>Entrecôte à la bordelaise, Cassoulet</t>
+  </si>
+  <si>
+    <t>Ensalada de pato, Tartaleta de tomate</t>
+  </si>
+  <si>
+    <t>Tapas de foie, Quesos locales</t>
+  </si>
+  <si>
+    <t>Canéles, Tartas de almendra</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Sopa de cebolla, Quiche Lorraine</t>
+  </si>
+  <si>
+    <t>Boeuf Bourguignon, Confit de canard</t>
+  </si>
+  <si>
+    <t>Ensaladas frescas, Ratatouille</t>
+  </si>
+  <si>
+    <t>Croissants, Quesos variados</t>
+  </si>
+  <si>
+    <t>Macarons, Tartaleta de frutas</t>
+  </si>
+  <si>
+    <t>Languedoc-Roussillon (Francia)</t>
+  </si>
+  <si>
+    <t>Mejillones gratinados, Pescado a la brasa</t>
+  </si>
+  <si>
+    <t>Cassoulet, Cordero asado</t>
+  </si>
+  <si>
+    <t>Ensalada de lentejas, Pimientos asados</t>
+  </si>
+  <si>
+    <t>Tartar de pescado, Croquetas</t>
+  </si>
+  <si>
+    <t>Tarta de higos, Galletas de miel</t>
+  </si>
+  <si>
+    <t>Provenza (Francia)</t>
+  </si>
+  <si>
+    <t>Bouillabaisse, Ensalada Niçoise</t>
+  </si>
+  <si>
+    <t>Cordero con hierbas, Ratatouille</t>
+  </si>
+  <si>
+    <t>Pimientos rellenos, Quesos frescos</t>
+  </si>
+  <si>
+    <t>Tapenade, Bruschettas</t>
+  </si>
+  <si>
+    <t>Tarta de limón, Fruta confitada</t>
+  </si>
+  <si>
+    <t>Sur de Francia</t>
+  </si>
+  <si>
+    <t>Sopas de mariscos, Tartaletas de queso</t>
+  </si>
+  <si>
+    <t>Estofados de caza, Filetes de cerdo</t>
+  </si>
+  <si>
+    <t>Ensaladas mixtas, Croquetas de jamón</t>
+  </si>
+  <si>
+    <t>Tostas de foie, Tapas variadas</t>
+  </si>
+  <si>
+    <t>Bizcochos de almendra, Fruta seca</t>
+  </si>
+  <si>
+    <t>Gascony (Francia)</t>
+  </si>
+  <si>
+    <t>Paté de foie gras, Alubias blancas</t>
+  </si>
+  <si>
+    <t>Magret de canard, Confit de pato</t>
+  </si>
+  <si>
+    <t>Ensalada verde, Croquetas de queso</t>
+  </si>
+  <si>
+    <t>Aperitivos de foie, Ensaladas</t>
+  </si>
+  <si>
+    <t>Flan de Armagnac, Tartas de frutas</t>
+  </si>
+  <si>
+    <t>Cataluña (Francia)</t>
+  </si>
+  <si>
+    <t>Pescados al horno, Ensaladas frescas</t>
+  </si>
+  <si>
+    <t>Estofados de carne, Embutidos locales</t>
+  </si>
+  <si>
+    <t>Gazpacho francés, Verduras asadas</t>
+  </si>
+  <si>
+    <t>Tapas ligeras, Croquetas</t>
+  </si>
+  <si>
+    <t>Crema catalana, Tarta de almendra</t>
+  </si>
+  <si>
+    <t>Ródano-Alpes (Francia)</t>
+  </si>
+  <si>
+    <t>Fondue de queso, Gratinados de papa</t>
+  </si>
+  <si>
+    <t>Carne de caza, Quesos de cabra</t>
+  </si>
+  <si>
+    <t>Ensaladas con nueces, Pescados ahumados</t>
+  </si>
+  <si>
+    <t>Croissants rellenos, Tostas</t>
+  </si>
+  <si>
+    <t>Tartiflette, Chocolates artesanales</t>
+  </si>
+  <si>
+    <t>Provenza-Alpes-Costa Azul</t>
+  </si>
+  <si>
+    <t>Sopa de pescado, Tapenade</t>
+  </si>
+  <si>
+    <t>Pollo con aceitunas, Verduras a la plancha</t>
+  </si>
+  <si>
+    <t>Ensalada de tomate, Quesos frescos</t>
+  </si>
+  <si>
+    <t>Mariscos, Aceitunas variadas</t>
+  </si>
+  <si>
+    <t>Bizcochos de miel, Tartas de frutas</t>
+  </si>
+  <si>
+    <t>Rhône-Alpes (Francia)</t>
+  </si>
+  <si>
+    <t>Quesos locales, Crepes saladas</t>
+  </si>
+  <si>
+    <t>Guisos de carne, Cazuelas</t>
+  </si>
+  <si>
+    <t>Ensaladas mixtas, Gratinados de papa</t>
+  </si>
+  <si>
+    <t>Aperitivos ligeros, Tostaditas</t>
+  </si>
+  <si>
+    <t>Tarta de frutas, Chocolates</t>
+  </si>
+  <si>
+    <t>Beaujolais (Francia)</t>
+  </si>
+  <si>
+    <t>Sopa de verduras, Quesos frescos</t>
+  </si>
+  <si>
+    <t>Ternera estofada, Cassoulet</t>
+  </si>
+  <si>
+    <t>Tapas de queso, Aceitunas</t>
+  </si>
+  <si>
+    <t>Pasteles de frutas, Mermeladas</t>
+  </si>
+  <si>
+    <t>Loira (Francia)</t>
+  </si>
+  <si>
+    <t>Rillettes de pescado, Ostras</t>
+  </si>
+  <si>
+    <t>Pescado a la parrilla, Estofados de carne</t>
+  </si>
+  <si>
+    <t>Ensaladas frescas, Espárragos</t>
+  </si>
+  <si>
+    <t>Tapas ligeras, Quesos suaves</t>
+  </si>
+  <si>
+    <t>Tartas de frutas, Pâtisseries</t>
+  </si>
+  <si>
+    <t>Tarn (Francia)</t>
+  </si>
+  <si>
+    <t>Sopas de lentejas, Pescados gratinados</t>
+  </si>
+  <si>
+    <t>Embutidos locales, Cazuelas de cerdo</t>
+  </si>
+  <si>
+    <t>Verduras salteadas, Croquetas de pescado</t>
+  </si>
+  <si>
+    <t>Tapas variadas, Quesos locales</t>
+  </si>
+  <si>
+    <t>Dulces de miel, Tarta de higos</t>
+  </si>
+  <si>
+    <t>Córcega (Francia)</t>
+  </si>
+  <si>
+    <t>Sopas de marisco, Brochetas de pescado</t>
+  </si>
+  <si>
+    <t>Guisos de cordero, Carne ahumada</t>
+  </si>
+  <si>
+    <t>Ensaladas frescas, Quesos locales</t>
+  </si>
+  <si>
+    <t>Aperitivos ligeros, Aceitunas</t>
+  </si>
+  <si>
+    <t>Tarta de castañas, Frutas confitadas</t>
+  </si>
+  <si>
+    <t>Borgoña (Francia)</t>
+  </si>
+  <si>
+    <t>Caracoles a la borgoña, Sopas de cebolla</t>
+  </si>
+  <si>
+    <t>Bœuf Bourguignon, Coq au vin</t>
+  </si>
+  <si>
+    <t>Verduras asadas, Croquetas de papa</t>
+  </si>
+  <si>
+    <t>Tostas de paté, Quesos variados</t>
+  </si>
+  <si>
+    <t>Tartas de crema, Pasteles de almendra</t>
+  </si>
+  <si>
+    <t>Roussillon (Francia)</t>
+  </si>
+  <si>
+    <t>Mariscos frescos, Mejillones gratinados</t>
+  </si>
+  <si>
+    <t>Carne de caza, Costillas de cerdo</t>
+  </si>
+  <si>
+    <t>Ensaladas mixtas, Ratatouille</t>
+  </si>
+  <si>
+    <t>Croquetas, Tapas ligeras</t>
+  </si>
+  <si>
+    <t>Tartas de fruta, Galletas de miel</t>
+  </si>
+  <si>
+    <t>Alsacia (Francia)</t>
+  </si>
+  <si>
+    <t>Tartas flambeadas, Sopas de cebolla</t>
+  </si>
+  <si>
+    <t>Embutidos locales, Estofados de carne</t>
+  </si>
+  <si>
+    <t>Verduras salteadas, Croquetas de queso</t>
+  </si>
+  <si>
+    <t>Tapas de foie, Aperitivos ligeros</t>
+  </si>
+  <si>
+    <t>Pasteles de crema, Chocolates</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3555,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3284,6 +3587,12 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4337,7 +4646,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -4807,6 +5116,346 @@
         <v>131</v>
       </c>
     </row>
+    <row r="25" ht="44.35" customHeight="1">
+      <c r="A25" t="s" s="11">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s" s="9">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s" s="9">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s" s="9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" ht="44.35" customHeight="1">
+      <c r="A26" t="s" s="11">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s" s="9">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s" s="9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" ht="44.35" customHeight="1">
+      <c r="A27" t="s" s="11">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s" s="9">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s" s="9">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s" s="9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" ht="30.35" customHeight="1">
+      <c r="A28" t="s" s="11">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s" s="9">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s" s="9">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s" s="9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" ht="44.35" customHeight="1">
+      <c r="A29" t="s" s="11">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s" s="12">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>158</v>
+      </c>
+      <c r="D29" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s" s="9">
+        <v>160</v>
+      </c>
+      <c r="F29" t="s" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" ht="44.35" customHeight="1">
+      <c r="A30" t="s" s="11">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s" s="9">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="F30" t="s" s="9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" ht="30.35" customHeight="1">
+      <c r="A31" t="s" s="11">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s" s="9">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="F31" t="s" s="9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" ht="44.35" customHeight="1">
+      <c r="A32" t="s" s="11">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>175</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>176</v>
+      </c>
+      <c r="D32" t="s" s="9">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s" s="9">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s" s="9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" ht="44.35" customHeight="1">
+      <c r="A33" t="s" s="11">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s" s="12">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s" s="9">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s" s="9">
+        <v>184</v>
+      </c>
+      <c r="F33" t="s" s="9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" ht="30.35" customHeight="1">
+      <c r="A34" t="s" s="11">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s" s="12">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s" s="9">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s" s="9">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s" s="9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" ht="30.35" customHeight="1">
+      <c r="A35" t="s" s="11">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s" s="12">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>194</v>
+      </c>
+      <c r="D35" t="s" s="9">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s" s="9">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s" s="9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" ht="44.35" customHeight="1">
+      <c r="A36" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s" s="12">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s" s="9">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s" s="9">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s" s="9">
+        <v>201</v>
+      </c>
+      <c r="F36" t="s" s="9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" ht="44.35" customHeight="1">
+      <c r="A37" t="s" s="11">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>205</v>
+      </c>
+      <c r="D37" t="s" s="9">
+        <v>206</v>
+      </c>
+      <c r="E37" t="s" s="9">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s" s="9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" ht="44.35" customHeight="1">
+      <c r="A38" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s" s="12">
+        <v>210</v>
+      </c>
+      <c r="C38" t="s" s="9">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s" s="9">
+        <v>212</v>
+      </c>
+      <c r="E38" t="s" s="9">
+        <v>213</v>
+      </c>
+      <c r="F38" t="s" s="9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" ht="44.35" customHeight="1">
+      <c r="A39" t="s" s="11">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s" s="12">
+        <v>216</v>
+      </c>
+      <c r="C39" t="s" s="9">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s" s="9">
+        <v>218</v>
+      </c>
+      <c r="E39" t="s" s="9">
+        <v>219</v>
+      </c>
+      <c r="F39" t="s" s="9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" ht="44.35" customHeight="1">
+      <c r="A40" t="s" s="11">
+        <v>221</v>
+      </c>
+      <c r="B40" t="s" s="12">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s" s="9">
+        <v>223</v>
+      </c>
+      <c r="D40" t="s" s="9">
+        <v>224</v>
+      </c>
+      <c r="E40" t="s" s="9">
+        <v>225</v>
+      </c>
+      <c r="F40" t="s" s="9">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" ht="44.35" customHeight="1">
+      <c r="A41" t="s" s="11">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s" s="12">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s" s="9">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s" s="9">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s" s="9">
+        <v>231</v>
+      </c>
+      <c r="F41" t="s" s="9">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
